--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H2">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N2">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q2">
-        <v>2.459927705809</v>
+        <v>12.437818568851</v>
       </c>
       <c r="R2">
-        <v>22.139349352281</v>
+        <v>111.940367119659</v>
       </c>
       <c r="S2">
-        <v>0.03906043724269125</v>
+        <v>0.09532818019129027</v>
       </c>
       <c r="T2">
-        <v>0.03906043724269125</v>
+        <v>0.09532818019129027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H3">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q3">
-        <v>0.4374185871239999</v>
+        <v>0.970707709908</v>
       </c>
       <c r="R3">
-        <v>3.936767284116</v>
+        <v>8.736369389171999</v>
       </c>
       <c r="S3">
-        <v>0.006945635528554956</v>
+        <v>0.007439873718284424</v>
       </c>
       <c r="T3">
-        <v>0.006945635528554955</v>
+        <v>0.007439873718284425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H4">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N4">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q4">
-        <v>1.085672575094111</v>
+        <v>1.824642589842444</v>
       </c>
       <c r="R4">
-        <v>9.771053175846999</v>
+        <v>16.421783308582</v>
       </c>
       <c r="S4">
-        <v>0.01723906169495665</v>
+        <v>0.01398475597841684</v>
       </c>
       <c r="T4">
-        <v>0.01723906169495665</v>
+        <v>0.01398475597841685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9142543333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.742763</v>
+      </c>
+      <c r="I5">
+        <v>0.1175834869881751</v>
+      </c>
+      <c r="J5">
+        <v>0.1175834869881751</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.4119796666666666</v>
-      </c>
-      <c r="H5">
-        <v>1.235939</v>
-      </c>
-      <c r="I5">
-        <v>0.0634382497734383</v>
-      </c>
-      <c r="J5">
-        <v>0.0634382497734383</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N5">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O5">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P5">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q5">
-        <v>0.01216191441311111</v>
+        <v>0.1083814989507778</v>
       </c>
       <c r="R5">
-        <v>0.109457229718</v>
+        <v>0.9754334905570001</v>
       </c>
       <c r="S5">
-        <v>0.0001931153072354532</v>
+        <v>0.0008306771001835196</v>
       </c>
       <c r="T5">
-        <v>0.0001931153072354532</v>
+        <v>0.0008306771001835196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>14.478153</v>
       </c>
       <c r="I6">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J6">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N6">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q6">
-        <v>28.816316738643</v>
+        <v>65.65519522688099</v>
       </c>
       <c r="R6">
-        <v>259.346850647787</v>
+        <v>590.8967570419289</v>
       </c>
       <c r="S6">
-        <v>0.4575654515688735</v>
+        <v>0.5032064301658837</v>
       </c>
       <c r="T6">
-        <v>0.4575654515688735</v>
+        <v>0.5032064301658837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14.478153</v>
       </c>
       <c r="I7">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J7">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q7">
         <v>5.124049997147999</v>
@@ -883,10 +883,10 @@
         <v>46.116449974332</v>
       </c>
       <c r="S7">
-        <v>0.08136321765447528</v>
+        <v>0.03927267138794011</v>
       </c>
       <c r="T7">
-        <v>0.08136321765447528</v>
+        <v>0.03927267138794011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14.478153</v>
       </c>
       <c r="I8">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J8">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N8">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q8">
-        <v>12.71788789747433</v>
+        <v>9.631694239004664</v>
       </c>
       <c r="R8">
-        <v>114.460991077269</v>
+        <v>86.68524815104199</v>
       </c>
       <c r="S8">
-        <v>0.201943439600192</v>
+        <v>0.07382097422314059</v>
       </c>
       <c r="T8">
-        <v>0.201943439600192</v>
+        <v>0.0738209742231406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>14.478153</v>
       </c>
       <c r="I9">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J9">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N9">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O9">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P9">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q9">
-        <v>0.1424682428873333</v>
+        <v>0.5721106505296667</v>
       </c>
       <c r="R9">
-        <v>1.282214185986</v>
+        <v>5.148995854767001</v>
       </c>
       <c r="S9">
-        <v>0.00226220951422109</v>
+        <v>0.004384873993871627</v>
       </c>
       <c r="T9">
-        <v>0.002262209514221089</v>
+        <v>0.004384873993871626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H10">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N10">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q10">
-        <v>7.480905864544001</v>
+        <v>27.020173993995</v>
       </c>
       <c r="R10">
-        <v>67.328152780896</v>
+        <v>243.181565945955</v>
       </c>
       <c r="S10">
-        <v>0.1187870088013026</v>
+        <v>0.2070929078954655</v>
       </c>
       <c r="T10">
-        <v>0.1187870088013026</v>
+        <v>0.2070929078954655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H11">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.185244</v>
       </c>
       <c r="O11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q11">
-        <v>1.330237171584</v>
+        <v>2.10878548146</v>
       </c>
       <c r="R11">
-        <v>11.972134544256</v>
+        <v>18.97906933314</v>
       </c>
       <c r="S11">
-        <v>0.02112242788105186</v>
+        <v>0.01616253535526258</v>
       </c>
       <c r="T11">
-        <v>0.02112242788105185</v>
+        <v>0.01616253535526258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H12">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N12">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q12">
-        <v>3.301647570705778</v>
+        <v>3.963891254843332</v>
       </c>
       <c r="R12">
-        <v>29.714828136352</v>
+        <v>35.67502129358999</v>
       </c>
       <c r="S12">
-        <v>0.0524258487062426</v>
+        <v>0.03038077277849313</v>
       </c>
       <c r="T12">
-        <v>0.05242584870624258</v>
+        <v>0.03038077277849314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H13">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N13">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O13">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P13">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q13">
-        <v>0.03698569540977778</v>
+        <v>0.2354502072183333</v>
       </c>
       <c r="R13">
-        <v>0.332871258688</v>
+        <v>2.119051864965</v>
       </c>
       <c r="S13">
-        <v>0.0005872845088168173</v>
+        <v>0.001804580092203369</v>
       </c>
       <c r="T13">
-        <v>0.0005872845088168172</v>
+        <v>0.001804580092203369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H14">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N14">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q14">
-        <v>0.019576895716</v>
+        <v>0.6654286422030001</v>
       </c>
       <c r="R14">
-        <v>0.176192061444</v>
+        <v>5.988857779827</v>
       </c>
       <c r="S14">
-        <v>0.0003108555201503563</v>
+        <v>0.005100098635241085</v>
       </c>
       <c r="T14">
-        <v>0.0003108555201503563</v>
+        <v>0.005100098635241085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H15">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.185244</v>
       </c>
       <c r="O15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q15">
-        <v>0.003481117776</v>
+        <v>0.051933279924</v>
       </c>
       <c r="R15">
-        <v>0.031330059984</v>
+        <v>0.467399519316</v>
       </c>
       <c r="S15">
-        <v>5.52756010279363E-05</v>
+        <v>0.0003980364433774767</v>
       </c>
       <c r="T15">
-        <v>5.52756010279363E-05</v>
+        <v>0.0003980364433774767</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H16">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N16">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q16">
-        <v>0.008640131469777778</v>
+        <v>0.09761916322733333</v>
       </c>
       <c r="R16">
-        <v>0.07776118322800001</v>
+        <v>0.8785724690459999</v>
       </c>
       <c r="S16">
-        <v>0.0001371939964930257</v>
+        <v>0.0007481904588609768</v>
       </c>
       <c r="T16">
-        <v>0.0001371939964930257</v>
+        <v>0.0007481904588609769</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04891300000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.146739</v>
+      </c>
+      <c r="I17">
+        <v>0.006290767119564404</v>
+      </c>
+      <c r="J17">
+        <v>0.006290767119564403</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.003278666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.009836000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.0005048619913859335</v>
-      </c>
-      <c r="J17">
-        <v>0.0005048619913859335</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M17">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N17">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O17">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P17">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q17">
-        <v>9.678842577777779E-05</v>
+        <v>0.005798456802333335</v>
       </c>
       <c r="R17">
-        <v>0.0008710958320000002</v>
+        <v>0.05218611122100001</v>
       </c>
       <c r="S17">
-        <v>1.5368737146153E-06</v>
+        <v>4.444158208486461E-05</v>
       </c>
       <c r="T17">
-        <v>1.536873714615299E-06</v>
+        <v>4.44415820848646E-05</v>
       </c>
     </row>
   </sheetData>
